--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1500.096807919974</v>
+        <v>5000.05645636383</v>
       </c>
       <c r="D2" t="n">
-        <v>1467</v>
+        <v>5126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9779368853095115</v>
+        <v>1.025188424317864</v>
       </c>
       <c r="F2" t="n">
         <v>1.02387683460556</v>
@@ -506,7 +506,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I2" t="n">
-        <v>1.678873147855</v>
+        <v>1.759992227447585</v>
       </c>
       <c r="J2" t="n">
         <v>1.75774038003493</v>
@@ -517,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1500.09356114348</v>
+        <v>5000.145244515368</v>
       </c>
       <c r="D3" t="n">
-        <v>1619</v>
+        <v>5254</v>
       </c>
       <c r="E3" t="n">
-        <v>1.079266015091672</v>
+        <v>1.05076947629933</v>
       </c>
       <c r="F3" t="n">
         <v>1.02387683460556</v>
@@ -538,7 +538,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I3" t="n">
-        <v>1.852829931408514</v>
+        <v>1.803908498436764</v>
       </c>
       <c r="J3" t="n">
         <v>1.75774038003493</v>
@@ -549,16 +549,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1500.121447770912</v>
+        <v>5000.409890245505</v>
       </c>
       <c r="D4" t="n">
-        <v>1612</v>
+        <v>5095</v>
       </c>
       <c r="E4" t="n">
-        <v>1.074579663130164</v>
+        <v>1.018916471215493</v>
       </c>
       <c r="F4" t="n">
         <v>1.02387683460556</v>
@@ -570,7 +570,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I4" t="n">
-        <v>1.844784636678594</v>
+        <v>1.74922485195909</v>
       </c>
       <c r="J4" t="n">
         <v>1.75774038003493</v>
@@ -581,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1500.38734561916</v>
+        <v>5000.19652817788</v>
       </c>
       <c r="D5" t="n">
-        <v>1493</v>
+        <v>5132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9950763743504442</v>
+        <v>1.026359658281302</v>
       </c>
       <c r="F5" t="n">
         <v>1.02387683460556</v>
@@ -602,7 +602,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I5" t="n">
-        <v>1.70829736566602</v>
+        <v>1.762002943354316</v>
       </c>
       <c r="J5" t="n">
         <v>1.75774038003493</v>
@@ -613,16 +613,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C6" t="n">
-        <v>1500.00677608348</v>
+        <v>5000.206458832492</v>
       </c>
       <c r="D6" t="n">
-        <v>1573</v>
+        <v>5170</v>
       </c>
       <c r="E6" t="n">
-        <v>1.048661929452816</v>
+        <v>1.033957306076348</v>
       </c>
       <c r="F6" t="n">
         <v>1.02387683460556</v>
@@ -634,7 +634,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I6" t="n">
-        <v>1.800290367388011</v>
+        <v>1.775046205206462</v>
       </c>
       <c r="J6" t="n">
         <v>1.75774038003493</v>
@@ -645,28 +645,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1500.251758876517</v>
+        <v>5000.682390343682</v>
       </c>
       <c r="D7" t="n">
-        <v>1583</v>
+        <v>5216</v>
       </c>
       <c r="E7" t="n">
-        <v>1.055156236700865</v>
+        <v>1.04305764550696</v>
       </c>
       <c r="F7" t="n">
         <v>1.02387683460556</v>
       </c>
       <c r="G7" t="n">
-        <v>1.716749999999894</v>
+        <v>1.716749999999895</v>
       </c>
       <c r="H7" t="n">
         <v>1.716749828324894</v>
       </c>
       <c r="I7" t="n">
-        <v>1.811439469356099</v>
+        <v>1.790669212923964</v>
       </c>
       <c r="J7" t="n">
         <v>1.75774038003493</v>
@@ -677,16 +677,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C8" t="n">
-        <v>1500.143655448765</v>
+        <v>5000.19612589729</v>
       </c>
       <c r="D8" t="n">
-        <v>1549</v>
+        <v>5096</v>
       </c>
       <c r="E8" t="n">
-        <v>1.032567777341711</v>
+        <v>1.019160023265191</v>
       </c>
       <c r="F8" t="n">
         <v>1.02387683460556</v>
@@ -698,7 +698,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I8" t="n">
-        <v>1.772660731751272</v>
+        <v>1.749642969940409</v>
       </c>
       <c r="J8" t="n">
         <v>1.75774038003493</v>
@@ -709,16 +709,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C9" t="n">
-        <v>1500.508749470392</v>
+        <v>5000.242569272623</v>
       </c>
       <c r="D9" t="n">
-        <v>1509</v>
+        <v>5118</v>
       </c>
       <c r="E9" t="n">
-        <v>1.005658914373278</v>
+        <v>1.023550343627531</v>
       </c>
       <c r="F9" t="n">
         <v>1.02387683460556</v>
@@ -730,7 +730,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I9" t="n">
-        <v>1.726464941250219</v>
+        <v>1.757180052422455</v>
       </c>
       <c r="J9" t="n">
         <v>1.75774038003493</v>
@@ -741,28 +741,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1500.090822224092</v>
+        <v>5000.328517295911</v>
       </c>
       <c r="D10" t="n">
-        <v>1527</v>
+        <v>5131</v>
       </c>
       <c r="E10" t="n">
-        <v>1.017938365715758</v>
+        <v>1.026132579539945</v>
       </c>
       <c r="F10" t="n">
         <v>1.02387683460556</v>
       </c>
       <c r="G10" t="n">
-        <v>1.716749999999895</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H10" t="n">
         <v>1.716749828324894</v>
       </c>
       <c r="I10" t="n">
-        <v>1.747545689342421</v>
+        <v>1.761613105925091</v>
       </c>
       <c r="J10" t="n">
         <v>1.75774038003493</v>
@@ -773,28 +773,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1500.062380016875</v>
+        <v>5000.114711125097</v>
       </c>
       <c r="D11" t="n">
-        <v>1538</v>
+        <v>5137</v>
       </c>
       <c r="E11" t="n">
-        <v>1.025290694899434</v>
+        <v>1.02737642969877</v>
       </c>
       <c r="F11" t="n">
         <v>1.02387683460556</v>
       </c>
       <c r="G11" t="n">
-        <v>1.716749999999894</v>
+        <v>1.716749999999895</v>
       </c>
       <c r="H11" t="n">
         <v>1.716749828324894</v>
       </c>
       <c r="I11" t="n">
-        <v>1.760167800468494</v>
+        <v>1.763748485685256</v>
       </c>
       <c r="J11" t="n">
         <v>1.75774038003493</v>
@@ -805,16 +805,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="C12" t="n">
-        <v>1500.016509072314</v>
+        <v>5000.041847897419</v>
       </c>
       <c r="D12" t="n">
-        <v>1550</v>
+        <v>5122</v>
       </c>
       <c r="E12" t="n">
-        <v>1.03332196054202</v>
+        <v>1.024391426274535</v>
       </c>
       <c r="F12" t="n">
         <v>1.02387683460556</v>
@@ -826,7 +826,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I12" t="n">
-        <v>1.773955475760404</v>
+        <v>1.7586239810567</v>
       </c>
       <c r="J12" t="n">
         <v>1.75774038003493</v>
@@ -837,16 +837,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>1500.480140242345</v>
+        <v>5000.411312418845</v>
       </c>
       <c r="D13" t="n">
-        <v>1522</v>
+        <v>5144</v>
       </c>
       <c r="E13" t="n">
-        <v>1.014341982396501</v>
+        <v>1.028715375318135</v>
       </c>
       <c r="F13" t="n">
         <v>1.02387683460556</v>
@@ -858,7 +858,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I13" t="n">
-        <v>1.741371598279085</v>
+        <v>1.766047120577299</v>
       </c>
       <c r="J13" t="n">
         <v>1.75774038003493</v>
@@ -869,16 +869,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>1500.011326081713</v>
+        <v>5000.087668863947</v>
       </c>
       <c r="D14" t="n">
-        <v>1540</v>
+        <v>5167</v>
       </c>
       <c r="E14" t="n">
-        <v>1.026658914651494</v>
+        <v>1.033381880916895</v>
       </c>
       <c r="F14" t="n">
         <v>1.02387683460556</v>
@@ -890,7 +890,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I14" t="n">
-        <v>1.762516691727844</v>
+        <v>1.774058344063971</v>
       </c>
       <c r="J14" t="n">
         <v>1.75774038003493</v>
@@ -901,16 +901,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>1500.964714304702</v>
+        <v>5000.820086275197</v>
       </c>
       <c r="D15" t="n">
-        <v>1543</v>
+        <v>4975</v>
       </c>
       <c r="E15" t="n">
-        <v>1.028005512251346</v>
+        <v>0.9948368295939978</v>
       </c>
       <c r="F15" t="n">
         <v>1.02387683460556</v>
@@ -922,7 +922,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I15" t="n">
-        <v>1.764828463157389</v>
+        <v>1.70788612720539</v>
       </c>
       <c r="J15" t="n">
         <v>1.75774038003493</v>
@@ -933,16 +933,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C16" t="n">
-        <v>1500.198350677426</v>
+        <v>5000.732571732012</v>
       </c>
       <c r="D16" t="n">
-        <v>1576</v>
+        <v>5071</v>
       </c>
       <c r="E16" t="n">
-        <v>1.050527751405902</v>
+        <v>1.014051426917967</v>
       </c>
       <c r="F16" t="n">
         <v>1.02387683460556</v>
@@ -954,7 +954,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I16" t="n">
-        <v>1.803493517225972</v>
+        <v>1.740872787161312</v>
       </c>
       <c r="J16" t="n">
         <v>1.75774038003493</v>
@@ -965,16 +965,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="C17" t="n">
-        <v>1500.145457553556</v>
+        <v>5000.575180016355</v>
       </c>
       <c r="D17" t="n">
-        <v>1558</v>
+        <v>5198</v>
       </c>
       <c r="E17" t="n">
-        <v>1.038565955157971</v>
+        <v>1.039480422326737</v>
       </c>
       <c r="F17" t="n">
         <v>1.02387683460556</v>
@@ -986,7 +986,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I17" t="n">
-        <v>1.782958103517337</v>
+        <v>1.784528015029316</v>
       </c>
       <c r="J17" t="n">
         <v>1.75774038003493</v>
@@ -997,16 +997,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="C18" t="n">
-        <v>1500.091179168274</v>
+        <v>5000.466880440717</v>
       </c>
       <c r="D18" t="n">
-        <v>1548</v>
+        <v>5009</v>
       </c>
       <c r="E18" t="n">
-        <v>1.031937272545185</v>
+        <v>1.001706464568871</v>
       </c>
       <c r="F18" t="n">
         <v>1.02387683460556</v>
@@ -1018,7 +1018,7 @@
         <v>1.716749828324894</v>
       </c>
       <c r="I18" t="n">
-        <v>1.771578312641837</v>
+        <v>1.719679573048503</v>
       </c>
       <c r="J18" t="n">
         <v>1.75774038003493</v>
@@ -1029,31 +1029,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="C19" t="n">
-        <v>1500.512222929097</v>
+        <v>5000.226642292825</v>
       </c>
       <c r="D19" t="n">
-        <v>1625</v>
+        <v>5221</v>
       </c>
       <c r="E19" t="n">
-        <v>1.082963520835501</v>
+        <v>1.044152670168955</v>
       </c>
       <c r="F19" t="n">
-        <v>1.074326225959115</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79999982</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949334337503902</v>
+        <v>1.792549096512443</v>
       </c>
       <c r="J19" t="n">
-        <v>1.933787013347687</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="20">
@@ -1061,31 +1061,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1500.162713497752</v>
+        <v>5000.036030812464</v>
       </c>
       <c r="D20" t="n">
-        <v>1705</v>
+        <v>5133</v>
       </c>
       <c r="E20" t="n">
-        <v>1.136543379367598</v>
+        <v>1.026592602206895</v>
       </c>
       <c r="F20" t="n">
-        <v>1.132502008508717</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H20" t="n">
-        <v>1.89999981</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I20" t="n">
-        <v>2.159432420798436</v>
+        <v>1.762402849838578</v>
       </c>
       <c r="J20" t="n">
-        <v>2.15175360099118</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="21">
@@ -1093,31 +1093,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1500.100270548895</v>
+        <v>5000.455193756511</v>
       </c>
       <c r="D21" t="n">
-        <v>1779</v>
+        <v>5016</v>
       </c>
       <c r="E21" t="n">
-        <v>1.185920724718657</v>
+        <v>1.003108678238513</v>
       </c>
       <c r="F21" t="n">
-        <v>1.187988300580323</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H21" t="n">
-        <v>1.9999998</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I21" t="n">
-        <v>2.371841449437315</v>
+        <v>1.722086823365861</v>
       </c>
       <c r="J21" t="n">
-        <v>2.375976363562986</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="22">
@@ -1125,31 +1125,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="C22" t="n">
-        <v>1500.470869245694</v>
+        <v>5001.051068209998</v>
       </c>
       <c r="D22" t="n">
-        <v>1935</v>
+        <v>5139</v>
       </c>
       <c r="E22" t="n">
-        <v>1.289595179527044</v>
+        <v>1.027583987827458</v>
       </c>
       <c r="F22" t="n">
-        <v>1.240770144831512</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G22" t="n">
-        <v>2.100000000000001</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H22" t="n">
-        <v>2.09999979</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I22" t="n">
-        <v>2.708149877006793</v>
+        <v>1.76410481110268</v>
       </c>
       <c r="J22" t="n">
-        <v>2.605617043584446</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="23">
@@ -1157,31 +1157,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="C23" t="n">
-        <v>1501.233551771825</v>
+        <v>5001.869962643362</v>
       </c>
       <c r="D23" t="n">
-        <v>1989</v>
+        <v>5053</v>
       </c>
       <c r="E23" t="n">
-        <v>1.324910436255898</v>
+        <v>1.010222184450716</v>
       </c>
       <c r="F23" t="n">
-        <v>1.290859786481063</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G23" t="n">
-        <v>2.288999999999858</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H23" t="n">
-        <v>2.199999780000001</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I23" t="n">
-        <v>3.032719988589564</v>
+        <v>1.734298935155661</v>
       </c>
       <c r="J23" t="n">
-        <v>2.839891246269187</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1189,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="C24" t="n">
-        <v>1500.801586190076</v>
+        <v>5000.09290005686</v>
       </c>
       <c r="D24" t="n">
-        <v>2010</v>
+        <v>5175</v>
       </c>
       <c r="E24" t="n">
-        <v>1.339284298800997</v>
+        <v>1.034980770045523</v>
       </c>
       <c r="F24" t="n">
-        <v>1.334147572817383</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H24" t="n">
-        <v>2.278005082987221</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I24" t="n">
-        <v>3.080353887242293</v>
+        <v>1.776803236975542</v>
       </c>
       <c r="J24" t="n">
-        <v>3.039194952333062</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="25">
@@ -1221,31 +1221,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="C25" t="n">
-        <v>1501.459819226545</v>
+        <v>5000.210449668447</v>
       </c>
       <c r="D25" t="n">
-        <v>2036</v>
+        <v>5255</v>
       </c>
       <c r="E25" t="n">
-        <v>1.356013643474532</v>
+        <v>1.050955765341526</v>
       </c>
       <c r="F25" t="n">
-        <v>1.328415389703795</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G25" t="n">
-        <v>2.237461517761008</v>
+        <v>1.716749999999895</v>
       </c>
       <c r="H25" t="n">
-        <v>2.267714336262502</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I25" t="n">
-        <v>3.034028344833161</v>
+        <v>1.804228310149954</v>
       </c>
       <c r="J25" t="n">
-        <v>3.012466623743034</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="26">
@@ -1253,31 +1253,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="C26" t="n">
-        <v>1500.280655291066</v>
+        <v>5000.426123377059</v>
       </c>
       <c r="D26" t="n">
-        <v>2062</v>
+        <v>5094</v>
       </c>
       <c r="E26" t="n">
-        <v>1.374409509799323</v>
+        <v>1.018713180499854</v>
       </c>
       <c r="F26" t="n">
-        <v>1.322582871928783</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G26" t="n">
-        <v>2.249327124868802</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H26" t="n">
-        <v>2.250369419451923</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I26" t="n">
-        <v>3.091496591069249</v>
+        <v>1.748875852623017</v>
       </c>
       <c r="J26" t="n">
-        <v>2.976300049679433</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="27">
@@ -1285,31 +1285,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="C27" t="n">
-        <v>1500.451973583949</v>
+        <v>5001.543292576583</v>
       </c>
       <c r="D27" t="n">
-        <v>2041</v>
+        <v>5192</v>
       </c>
       <c r="E27" t="n">
-        <v>1.360256799906037</v>
+        <v>1.03807958789562</v>
       </c>
       <c r="F27" t="n">
-        <v>1.310830543661553</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G27" t="n">
-        <v>2.228886554621805</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H27" t="n">
-        <v>2.240419062999562</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I27" t="n">
-        <v>3.031858092143448</v>
+        <v>1.782123132519695</v>
       </c>
       <c r="J27" t="n">
-        <v>2.936809738381423</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="28">
@@ -1317,31 +1317,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C28" t="n">
-        <v>1500.070686602712</v>
+        <v>5000.327861670411</v>
       </c>
       <c r="D28" t="n">
-        <v>2017</v>
+        <v>4997</v>
       </c>
       <c r="E28" t="n">
-        <v>1.344603303040342</v>
+        <v>0.9993344713061877</v>
       </c>
       <c r="F28" t="n">
-        <v>1.304960559918436</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G28" t="n">
-        <v>2.122519490644428</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H28" t="n">
-        <v>2.223323847030183</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I28" t="n">
-        <v>2.853946717888002</v>
+        <v>1.715607453614792</v>
       </c>
       <c r="J28" t="n">
-        <v>2.901349932300521</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="29">
@@ -1349,31 +1349,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="C29" t="n">
-        <v>1500.012018947982</v>
+        <v>5000.089285250496</v>
       </c>
       <c r="D29" t="n">
-        <v>2004</v>
+        <v>5156</v>
       </c>
       <c r="E29" t="n">
-        <v>1.335989295209438</v>
+        <v>1.031181586138755</v>
       </c>
       <c r="F29" t="n">
-        <v>1.299012411391904</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G29" t="n">
-        <v>2.182676598049778</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H29" t="n">
-        <v>2.20657167494209</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I29" t="n">
-        <v>2.916032569898656</v>
+        <v>1.770280988003599</v>
       </c>
       <c r="J29" t="n">
-        <v>2.866363992375596</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="30">
@@ -1381,31 +1381,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="C30" t="n">
-        <v>1500.072743078373</v>
+        <v>5000.863285736773</v>
       </c>
       <c r="D30" t="n">
-        <v>1960</v>
+        <v>5138</v>
       </c>
       <c r="E30" t="n">
-        <v>1.306603302435713</v>
+        <v>1.02742260814335</v>
       </c>
       <c r="F30" t="n">
-        <v>1.287639522042892</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G30" t="n">
-        <v>2.111592602591722</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H30" t="n">
-        <v>2.19598231377483</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I30" t="n">
-        <v>2.759013867945165</v>
+        <v>1.763827762529988</v>
       </c>
       <c r="J30" t="n">
-        <v>2.827633616923666</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="31">
@@ -1413,31 +1413,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1500.055288343605</v>
+        <v>5000.123877700951</v>
       </c>
       <c r="D31" t="n">
-        <v>1893</v>
+        <v>5160</v>
       </c>
       <c r="E31" t="n">
-        <v>1.261953485788043</v>
+        <v>1.031974432275978</v>
       </c>
       <c r="F31" t="n">
-        <v>1.281699665602943</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G31" t="n">
-        <v>2.087710920770803</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H31" t="n">
-        <v>2.179517446992391</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63459407378448</v>
+        <v>1.771642106609676</v>
       </c>
       <c r="J31" t="n">
-        <v>2.793486782985928</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="32">
@@ -1445,31 +1445,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="C32" t="n">
-        <v>1500.334254509488</v>
+        <v>5000.291800992107</v>
       </c>
       <c r="D32" t="n">
-        <v>1977</v>
+        <v>5148</v>
       </c>
       <c r="E32" t="n">
-        <v>1.317706367136402</v>
+        <v>1.029539915846228</v>
       </c>
       <c r="F32" t="n">
-        <v>1.275707292408766</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G32" t="n">
-        <v>2.074633983572817</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H32" t="n">
-        <v>2.163387465060333</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I32" t="n">
-        <v>2.733758409631459</v>
+        <v>1.767462650528904</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75984916548318</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="33">
@@ -1477,31 +1477,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="C33" t="n">
-        <v>1500.148682262494</v>
+        <v>5000.291612761698</v>
       </c>
       <c r="D33" t="n">
-        <v>1981</v>
+        <v>5122</v>
       </c>
       <c r="E33" t="n">
-        <v>1.320535773169027</v>
+        <v>1.024340257861697</v>
       </c>
       <c r="F33" t="n">
-        <v>1.269671773400429</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G33" t="n">
-        <v>2.053715517241297</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H33" t="n">
-        <v>2.147585871488087</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I33" t="n">
-        <v>2.712004808429465</v>
+        <v>1.75853613768396</v>
       </c>
       <c r="J33" t="n">
-        <v>2.726729161981984</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="34">
@@ -1509,31 +1509,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="C34" t="n">
-        <v>1500.279379728405</v>
+        <v>5000.133676623798</v>
       </c>
       <c r="D34" t="n">
-        <v>1880</v>
+        <v>5065</v>
       </c>
       <c r="E34" t="n">
-        <v>1.253099939519489</v>
+        <v>1.012972917840069</v>
       </c>
       <c r="F34" t="n">
-        <v>1.25884595979913</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G34" t="n">
-        <v>2.025067105263073</v>
+        <v>1.716749999999895</v>
       </c>
       <c r="H34" t="n">
-        <v>2.136556832248198</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I34" t="n">
-        <v>2.537611467128063</v>
+        <v>1.739021256701831</v>
       </c>
       <c r="J34" t="n">
-        <v>2.689595936156872</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="35">
@@ -1541,31 +1541,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="C35" t="n">
-        <v>1500.030475274869</v>
+        <v>5000.713143091772</v>
       </c>
       <c r="D35" t="n">
-        <v>1889</v>
+        <v>5091</v>
       </c>
       <c r="E35" t="n">
-        <v>1.25930774816682</v>
+        <v>1.018054796251002</v>
       </c>
       <c r="F35" t="n">
-        <v>1.25288624348987</v>
+        <v>1.02387683460556</v>
       </c>
       <c r="G35" t="n">
-        <v>1.985864307535553</v>
+        <v>1.716749999999894</v>
       </c>
       <c r="H35" t="n">
-        <v>2.121098263206087</v>
+        <v>1.716749828324894</v>
       </c>
       <c r="I35" t="n">
-        <v>2.500814309287458</v>
+        <v>1.747745571463799</v>
       </c>
       <c r="J35" t="n">
-        <v>2.657494835061162</v>
+        <v>1.75774038003493</v>
       </c>
     </row>
     <row r="36">
@@ -1573,31 +1573,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="C36" t="n">
-        <v>1500.451378688549</v>
+        <v>5000.014309323598</v>
       </c>
       <c r="D36" t="n">
-        <v>1899</v>
+        <v>5344</v>
       </c>
       <c r="E36" t="n">
-        <v>1.265619150991615</v>
+        <v>1.068796941247741</v>
       </c>
       <c r="F36" t="n">
-        <v>1.246910567583279</v>
+        <v>1.074326225959115</v>
       </c>
       <c r="G36" t="n">
-        <v>1.953672667342707</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10597248983234</v>
+        <v>1.79999982</v>
       </c>
       <c r="I36" t="n">
-        <v>2.472605542557802</v>
+        <v>1.923834494245935</v>
       </c>
       <c r="J36" t="n">
-        <v>2.625959352611615</v>
+        <v>1.933787013347687</v>
       </c>
     </row>
     <row r="37">
@@ -1605,31 +1605,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="C37" t="n">
-        <v>1500.890456690121</v>
+        <v>5000.154890939059</v>
       </c>
       <c r="D37" t="n">
-        <v>1869</v>
+        <v>5464</v>
       </c>
       <c r="E37" t="n">
-        <v>1.24526076614656</v>
+        <v>1.09276614808503</v>
       </c>
       <c r="F37" t="n">
-        <v>1.240928394860098</v>
+        <v>1.074326225959115</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93237421218478</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>2.091177108609814</v>
+        <v>1.79999982</v>
       </c>
       <c r="I37" t="n">
-        <v>2.406309791947074</v>
+        <v>1.966979066553055</v>
       </c>
       <c r="J37" t="n">
-        <v>2.595001052755357</v>
+        <v>1.933787013347687</v>
       </c>
     </row>
     <row r="38">
@@ -1637,31 +1637,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="C38" t="n">
-        <v>1500.105771701792</v>
+        <v>5000.203216961642</v>
       </c>
       <c r="D38" t="n">
-        <v>1856</v>
+        <v>5565</v>
       </c>
       <c r="E38" t="n">
-        <v>1.237246089583713</v>
+        <v>1.112954765742812</v>
       </c>
       <c r="F38" t="n">
-        <v>1.230769071736662</v>
+        <v>1.132502008508717</v>
       </c>
       <c r="G38" t="n">
-        <v>1.902999484004032</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.080037888311366</v>
+        <v>1.89999981</v>
       </c>
       <c r="I38" t="n">
-        <v>2.354478670063812</v>
+        <v>2.114614054911343</v>
       </c>
       <c r="J38" t="n">
-        <v>2.560046300974067</v>
+        <v>2.15175360099118</v>
       </c>
     </row>
     <row r="39">
@@ -1669,31 +1669,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="C39" t="n">
-        <v>1500.000040775504</v>
+        <v>5000.682209716287</v>
       </c>
       <c r="D39" t="n">
-        <v>1856</v>
+        <v>5629</v>
       </c>
       <c r="E39" t="n">
-        <v>1.237333299698074</v>
+        <v>1.125646414615769</v>
       </c>
       <c r="F39" t="n">
-        <v>1.224929094342073</v>
+        <v>1.132502008508717</v>
       </c>
       <c r="G39" t="n">
-        <v>1.877826030927737</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
-        <v>2.065660521933829</v>
+        <v>1.89999981</v>
       </c>
       <c r="I39" t="n">
-        <v>2.323496679106755</v>
+        <v>2.138728187769962</v>
       </c>
       <c r="J39" t="n">
-        <v>2.53028767235058</v>
+        <v>2.15175360099118</v>
       </c>
     </row>
     <row r="40">
@@ -1701,31 +1701,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>1501.878889476829</v>
+        <v>5000.642378682545</v>
       </c>
       <c r="D40" t="n">
-        <v>1762</v>
+        <v>5980</v>
       </c>
       <c r="E40" t="n">
-        <v>1.173197128174418</v>
+        <v>1.195846362757793</v>
       </c>
       <c r="F40" t="n">
-        <v>1.219108502637216</v>
+        <v>1.187988300580323</v>
       </c>
       <c r="G40" t="n">
-        <v>1.877248378378281</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>2.051624970935925</v>
+        <v>1.9999998</v>
       </c>
       <c r="I40" t="n">
-        <v>2.202382406383483</v>
+        <v>2.391692725515586</v>
       </c>
       <c r="J40" t="n">
-        <v>2.501153446290818</v>
+        <v>2.375976363562986</v>
       </c>
     </row>
     <row r="41">
@@ -1733,31 +1733,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>1500.943408534259</v>
+        <v>5000.025314505326</v>
       </c>
       <c r="D41" t="n">
-        <v>1836</v>
+        <v>5847</v>
       </c>
       <c r="E41" t="n">
-        <v>1.223230662502419</v>
+        <v>1.169394079473469</v>
       </c>
       <c r="F41" t="n">
-        <v>1.209561595490476</v>
+        <v>1.187988300580323</v>
       </c>
       <c r="G41" t="n">
-        <v>1.861317587939599</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.040564865240529</v>
+        <v>1.9999998</v>
       </c>
       <c r="I41" t="n">
-        <v>2.27682074622276</v>
+        <v>2.338788158946939</v>
       </c>
       <c r="J41" t="n">
-        <v>2.468188894102143</v>
+        <v>2.375976363562986</v>
       </c>
     </row>
     <row r="42">
@@ -1765,31 +1765,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="C42" t="n">
-        <v>1500.150304750611</v>
+        <v>5000.20964017205</v>
       </c>
       <c r="D42" t="n">
-        <v>1844</v>
+        <v>6186</v>
       </c>
       <c r="E42" t="n">
-        <v>1.229210162582043</v>
+        <v>1.237148128810685</v>
       </c>
       <c r="F42" t="n">
-        <v>1.203927041495474</v>
+        <v>1.240770144831512</v>
       </c>
       <c r="G42" t="n">
-        <v>1.813926350662488</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2.027013930374787</v>
+        <v>2.09999979</v>
       </c>
       <c r="I42" t="n">
-        <v>2.229696704409688</v>
+        <v>2.598011070502439</v>
       </c>
       <c r="J42" t="n">
-        <v>2.440376884266231</v>
+        <v>2.605617043584446</v>
       </c>
     </row>
     <row r="43">
@@ -1797,31 +1797,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="C43" t="n">
-        <v>1500.501372088122</v>
+        <v>5000.156726281611</v>
       </c>
       <c r="D43" t="n">
-        <v>1757</v>
+        <v>6152</v>
       </c>
       <c r="E43" t="n">
-        <v>1.17094194826022</v>
+        <v>1.230361434005482</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1983352659238</v>
+        <v>1.240770144831512</v>
       </c>
       <c r="G43" t="n">
-        <v>1.815122858672275</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.013817405770298</v>
+        <v>2.09999979</v>
       </c>
       <c r="I43" t="n">
-        <v>2.125403496465375</v>
+        <v>2.583759011411513</v>
       </c>
       <c r="J43" t="n">
-        <v>2.413228416465727</v>
+        <v>2.605617043584446</v>
       </c>
     </row>
     <row r="44">
@@ -1829,31 +1829,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="C44" t="n">
-        <v>1501.631641616199</v>
+        <v>5000.221724236555</v>
       </c>
       <c r="D44" t="n">
-        <v>1832</v>
+        <v>6517</v>
       </c>
       <c r="E44" t="n">
-        <v>1.220006258011603</v>
+        <v>1.303342203488992</v>
       </c>
       <c r="F44" t="n">
-        <v>1.189444049473477</v>
+        <v>1.290859786481063</v>
       </c>
       <c r="G44" t="n">
-        <v>1.852981094527263</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
-        <v>2.003033063266333</v>
+        <v>2.199999780000001</v>
       </c>
       <c r="I44" t="n">
-        <v>2.260648531300451</v>
+        <v>2.867352847675783</v>
       </c>
       <c r="J44" t="n">
-        <v>2.382495758000771</v>
+        <v>2.839891246269187</v>
       </c>
     </row>
     <row r="45">
@@ -1861,31 +1861,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.399999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="C45" t="n">
-        <v>1500.030575210636</v>
+        <v>5000.01910598924</v>
       </c>
       <c r="D45" t="n">
-        <v>1816</v>
+        <v>6533</v>
       </c>
       <c r="E45" t="n">
-        <v>1.210641989577442</v>
+        <v>1.30659500724197</v>
       </c>
       <c r="F45" t="n">
-        <v>1.184075278468772</v>
+        <v>1.290859786481063</v>
       </c>
       <c r="G45" t="n">
-        <v>1.792107071213538</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.990382722746429</v>
+        <v>2.199999780000001</v>
       </c>
       <c r="I45" t="n">
-        <v>2.169600070229761</v>
+        <v>2.874509015932334</v>
       </c>
       <c r="J45" t="n">
-        <v>2.35676297669541</v>
+        <v>2.839891246269187</v>
       </c>
     </row>
     <row r="46">
@@ -1893,31 +1893,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="C46" t="n">
-        <v>1500.80854794516</v>
+        <v>5000.190485189084</v>
       </c>
       <c r="D46" t="n">
-        <v>1816</v>
+        <v>6395</v>
       </c>
       <c r="E46" t="n">
-        <v>1.210014430212559</v>
+        <v>1.278951275744882</v>
       </c>
       <c r="F46" t="n">
-        <v>1.178769307840287</v>
+        <v>1.334147572817383</v>
       </c>
       <c r="G46" t="n">
-        <v>1.799195607762921</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1.978097698493945</v>
+        <v>2.278005082987221</v>
       </c>
       <c r="I46" t="n">
-        <v>2.177052648168189</v>
+        <v>2.941587934213229</v>
       </c>
       <c r="J46" t="n">
-        <v>2.331720854894171</v>
+        <v>3.039194952333062</v>
       </c>
     </row>
     <row r="47">
@@ -1925,31 +1925,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="C47" t="n">
-        <v>1500.733686815623</v>
+        <v>5000.471407456422</v>
       </c>
       <c r="D47" t="n">
-        <v>1756</v>
+        <v>6736</v>
       </c>
       <c r="E47" t="n">
-        <v>1.170094344804121</v>
+        <v>1.347072995949073</v>
       </c>
       <c r="F47" t="n">
-        <v>1.170562944212904</v>
+        <v>1.334147572817383</v>
       </c>
       <c r="G47" t="n">
-        <v>1.777786542338606</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
-        <v>1.967763862632161</v>
+        <v>2.278005082987221</v>
       </c>
       <c r="I47" t="n">
-        <v>2.080177979459276</v>
+        <v>3.098267890682868</v>
       </c>
       <c r="J47" t="n">
-        <v>2.303391460558459</v>
+        <v>3.039194952333062</v>
       </c>
     </row>
     <row r="48">
@@ -1957,31 +1957,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="C48" t="n">
-        <v>1500.252884913658</v>
+        <v>5000.136371917983</v>
       </c>
       <c r="D48" t="n">
-        <v>1695</v>
+        <v>6827</v>
       </c>
       <c r="E48" t="n">
-        <v>1.129809525477133</v>
+        <v>1.36536276057232</v>
       </c>
       <c r="F48" t="n">
-        <v>1.165508795051007</v>
+        <v>1.328415389703795</v>
       </c>
       <c r="G48" t="n">
-        <v>1.781940686784496</v>
+        <v>2.215404064554663</v>
       </c>
       <c r="H48" t="n">
-        <v>1.956076240046375</v>
+        <v>2.267714336262502</v>
       </c>
       <c r="I48" t="n">
-        <v>2.013253561764388</v>
+        <v>3.024830209363493</v>
       </c>
       <c r="J48" t="n">
-        <v>2.279824061564355</v>
+        <v>3.012466623743034</v>
       </c>
     </row>
     <row r="49">
@@ -1989,31 +1989,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="C49" t="n">
-        <v>1500.239499283962</v>
+        <v>5000.207946462418</v>
       </c>
       <c r="D49" t="n">
-        <v>1720</v>
+        <v>6705</v>
       </c>
       <c r="E49" t="n">
-        <v>1.146483611997235</v>
+        <v>1.340944231078169</v>
       </c>
       <c r="F49" t="n">
-        <v>1.160533555198671</v>
+        <v>1.328415389703795</v>
       </c>
       <c r="G49" t="n">
-        <v>1.774985571878175</v>
+        <v>2.202348507917144</v>
       </c>
       <c r="H49" t="n">
-        <v>1.944760823513801</v>
+        <v>2.267714336262502</v>
       </c>
       <c r="I49" t="n">
-        <v>2.034991869689868</v>
+        <v>2.953226526515108</v>
       </c>
       <c r="J49" t="n">
-        <v>2.256960192523566</v>
+        <v>3.012466623743034</v>
       </c>
     </row>
     <row r="50">
@@ -2021,31 +2021,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="C50" t="n">
-        <v>1501.538812615487</v>
+        <v>5000.56539860847</v>
       </c>
       <c r="D50" t="n">
-        <v>1701</v>
+        <v>6645</v>
       </c>
       <c r="E50" t="n">
-        <v>1.132837849883532</v>
+        <v>1.328849734041901</v>
       </c>
       <c r="F50" t="n">
-        <v>1.153026335436195</v>
+        <v>1.322582871928783</v>
       </c>
       <c r="G50" t="n">
-        <v>1.753764534883617</v>
+        <v>2.209159118176326</v>
       </c>
       <c r="H50" t="n">
-        <v>1.93502279141901</v>
+        <v>2.250369419451923</v>
       </c>
       <c r="I50" t="n">
-        <v>1.986730844899549</v>
+        <v>2.935640506644852</v>
       </c>
       <c r="J50" t="n">
-        <v>2.231132238175378</v>
+        <v>2.976300049679433</v>
       </c>
     </row>
     <row r="51">
@@ -2053,30 +2053,1630 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5000.338689374927</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.328110036648371</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.322582871928783</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.222072580645124</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.250369419451923</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.951156896515935</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.976300049679433</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5000.590094708653</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6725</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.344841283254955</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.310830543661553</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.134133054892546</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.240419062999562</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.870070236178508</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.936809738381423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5000.200287170255</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6614</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.322747014148715</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.310830543661553</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.176378896882444</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.240419062999562</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.878798687507525</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.936809738381423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5000.143238007504</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6554</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.310762449799676</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.304960559918436</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.142335820895462</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.223323847030183</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.808093348890536</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.901349932300521</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5000.033701505619</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6613</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.322591085337821</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.304960559918436</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.091762360211824</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.223323847030183</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.766546250261358</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.901349932300521</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5000.681596387806</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6528</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.305422045809803</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.299012411391904</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.093311362301751</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.20657167494209</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.732654801092857</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.866363992375596</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5000.009522105698</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6495</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.298997526161651</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.299012411391904</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.083095021250689</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.20657167494209</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.705935279364297</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.866363992375596</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5000.146908679762</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6452</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.290362086921879</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.287639522042892</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.046289340855031</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.19598231377483</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.640454184311694</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.827633616923666</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5000.30116109968</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6517</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.303321498052882</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.287639522042892</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.102500742280214</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.19598231377483</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.740234417085945</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.827633616923666</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5000.267504564027</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6495</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.298930506032256</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.281699665602943</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.064609923887511</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.179517446992391</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.681784813194423</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.793486782985928</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5000.195370363615</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6486</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.29714931509333</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.281699665602943</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.047329625292662</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.179517446992391</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.655692221218659</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.793486782985928</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5000.00912579711</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6358</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.271597679131515</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.275707292408766</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.994731648616041</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.163387465060333</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.536496134870338</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.75984916548318</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5000.109701932092</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.282371864265766</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.275707292408766</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.989367201166096</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.163387465060333</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.551108526468535</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.75984916548318</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5000.494221641821</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6419</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.283673116192991</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.269671773400429</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.964524027459866</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.147585871488087</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.52180668016541</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.726729161981984</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5000.105056215856</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6287</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.257373581017932</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.269671773400429</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.981082889283513</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.147585871488087</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.490961286791762</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.726729161981984</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5000.340858144417</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6336</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.267113618800626</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.25884595979913</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.973543173862222</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.136556832248198</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.500703432891833</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.689595936156872</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5000.213813448016</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6295</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.258946164075958</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.25884595979913</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.970546440972133</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.136556832248198</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.480811882995399</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.689595936156872</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5000.432620336494</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6188</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.237492927078696</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.25288624348987</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.937812868080003</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.121098263206087</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.398029718251085</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.657494835061162</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5000.724364371683</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6278</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.255418123967887</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.25288624348987</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.908982028985414</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.121098263206087</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.396570637517278</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.657494835061162</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5000.221135584682</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6255</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.250944674323608</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.246910567583279</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.934679494712011</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.10597248983234</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.420177010433078</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.625959352611615</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5001.226681974836</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6253</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.250293257559539</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.246910567583279</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.957339027214732</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.10597248983234</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.447247788484726</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.625959352611615</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5000.254477652622</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6182</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.236337075968612</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.240928394860098</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.891327056778583</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.091177108609814</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.338317763077954</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.595001052755357</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5000.083630164509</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6102</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.22037958789086</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.240928394860098</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.896954666272793</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.091177108609814</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.315004753873635</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.595001052755357</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5000.215650932868</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6038</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.20754791823299</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.230769071736662</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.893825892857047</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.080037888311366</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.28688551441526</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.560046300974067</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5000.443814850946</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6154</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.230690760232737</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.230769071736662</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.878313459267907</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.080037888311366</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.311623019141804</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.560046300974067</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5000.197996079673</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6077</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.215351873018744</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.224929094342073</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.866850522951674</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.065660521933829</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.268880279715339</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.53028767235058</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5000.267959927553</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6005</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.20093563947461</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.224929094342073</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.888919421487506</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.065660521933829</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.268470653360109</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.53028767235058</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5000.295602531877</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.199929059586383</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.219108502637216</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.847055149209965</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.051624970935925</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.216335148195699</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.501153446290818</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5000.07004041854</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5953</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.190583322209161</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.219108502637216</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.845707471943197</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.051624970935925</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.197468533772403</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.501153446290818</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5001.130243412764</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5886</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.176933955629878</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.209561595490476</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.857236708482577</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.040564865240529</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.185844945855414</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.468188894102143</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5000.923746698661</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6025</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.204777418167469</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.209561595490476</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.874443993035305</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.040564865240529</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.258287794428596</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.468188894102143</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5000.320156471521</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5849</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.169725100987804</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.203927041495474</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.818525800711642</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.027013930374787</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.127175275886352</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.440376884266231</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5000.386983234263</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5777</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.155310582834815</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.203927041495474</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.8470839843749</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.027013930374787</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.133955674533019</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.440376884266231</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5001.618817473064</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5794</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.158424944291789</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.1983352659238</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.836122848664588</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.013817405770298</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.127010508677156</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.413228416465727</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5000.220246870863</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5930</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.185947759743382</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.1983352659238</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.84365243902429</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.013817405770298</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.186475479806279</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.413228416465727</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5000.101917001849</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5845</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.168976172290658</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.189444049473477</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.819588829471081</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.003033063266333</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.127055985017942</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.382495758000771</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5000.165933321414</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5886</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.177160933955278</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.189444049473477</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.823558919078457</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.003033063266333</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.146622320304874</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.382495758000771</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5000.147778444164</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.167565491797633</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.184075278468772</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.788888807714684</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.990382722746429</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.088644840550675</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.35676297669541</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5003.213020083503</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5836</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.166450434265659</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.184075278468772</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.805452479338741</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.990382722746429</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.105970828570684</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.35676297669541</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5000.074045093933</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5662</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.132383230515466</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.178769307840287</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.804838253195272</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.978097698493945</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.043768571711152</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.331720854894171</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5000.499026587201</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5738</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.147485474847925</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.178769307840287</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.812213335304452</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.978097698493945</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.07948847958757</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.331720854894171</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5005.121541743823</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5690</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.136835529875576</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.170562944212904</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.792008845707554</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.967763862632161</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.037219325651666</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.303391460558459</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5000.130906054149</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.159969630590545</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.170562944212904</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.785880555555452</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.967763862632161</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.071567208306496</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.303391460558459</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5000.251615614301</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5851</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.170141114844914</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.165508795051007</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.780296488197939</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.956076240046375</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.083198117454421</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.279824061564355</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5000.300129529435</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5752</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.150330950342636</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.165508795051007</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.773104191263179</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.956076240046375</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.039656629392283</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.279824061564355</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5000.121765980563</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5670</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.133972384148142</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.160533555198671</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.766658723021479</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.944760823513801</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.003342204120779</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.256960192523566</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5000.38099191623</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5533</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.106515685293744</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.160533555198671</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.777458383054789</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.944760823513801</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.96678558080698</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.256960192523566</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5000.08027380122</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5535</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.10698222766574</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.153026335436195</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.785577027026923</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.93502279141901</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.976602035047033</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.231132238175378</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5000.018039137128</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5589</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.117795967185053</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.153026335436195</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.760356164383457</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.93502279141901</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.967719021357178</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.231132238175378</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>5</v>
       </c>
-      <c r="C51" t="n">
-        <v>1500.055287069185</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1743</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.161957172528942</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="C100" t="n">
+        <v>5000.162810061711</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5715</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.142962782831759</v>
+      </c>
+      <c r="F100" t="n">
         <v>1.14832302550634</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.766850457782195</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="G100" t="n">
+        <v>1.759899044205391</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.924341691346102</v>
       </c>
-      <c r="I51" t="n">
-        <v>2.053004562206065</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="I100" t="n">
+        <v>2.011499109067947</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.209765873114543</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5000.238996861813</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5601</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.120146457702368</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.14832302550634</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.76202263189438</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.924341691346102</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.973723409507893</v>
+      </c>
+      <c r="J101" t="n">
         <v>2.209765873114543</v>
       </c>
     </row>
